--- a/app-store/1113286385/Wing Money_comments.xlsx
+++ b/app-store/1113286385/Wing Money_comments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="524">
   <si>
     <t>作者</t>
   </si>
@@ -34,40 +34,1142 @@
     <t>投票</t>
   </si>
   <si>
+    <t>បប្ក</t>
+  </si>
+  <si>
+    <t>Hello hello my hello</t>
+  </si>
+  <si>
+    <t>Hello how do you io</t>
+  </si>
+  <si>
+    <t>3.0.1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>PLAYER B.C</t>
+  </si>
+  <si>
+    <t>Errors</t>
+  </si>
+  <si>
+    <t>Forget Password App Wing not help</t>
+  </si>
+  <si>
+    <t>Кристи РнД</t>
+  </si>
+  <si>
+    <t>Beyond the most horrible expectations!</t>
+  </si>
+  <si>
+    <t>Everything in work of this company is below any acceptable norms, EVERYTHING. All workers are lost, unprofessional, and absolutely damn. Like they’ve made a special casting for the most idiots, hired them all and left them to figure out what to do! 
+They will always be either late, or your order will be wrong, or it’s just half empty (because they spit or lost it or whatever). 
+Customer service are just kids without any education and understanding what’s going on. THEY CAN NEVER FIX THE PROBLEM, so you ALWAYS have to waaaaaait for everything during days/weeks to solve the issue. 
+App has so many bugs that that it’s easy to just not have it. 
+Just shocking bad EVERYTHING. That’s the only thing that you can CONSTANTLY get from Wing.</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Muyly san</t>
+  </si>
+  <si>
+    <t>I can't update version</t>
+  </si>
+  <si>
+    <t>I don't know why?</t>
+  </si>
+  <si>
+    <t>Ciera Lee</t>
+  </si>
+  <si>
+    <t>Better have a Remark column for User</t>
+  </si>
+  <si>
+    <t>Please improve Wing App by adding a Remark column for sender and receiver to see the notes to tell the purposes of sending.</t>
+  </si>
+  <si>
+    <t>2.9.2</t>
+  </si>
+  <si>
+    <t>Loy123445</t>
+  </si>
+  <si>
+    <t>078823704</t>
+  </si>
+  <si>
+    <t>H
+I</t>
+  </si>
+  <si>
+    <t>2.7.0</t>
+  </si>
+  <si>
+    <t>wing bank</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Wing bank</t>
+  </si>
+  <si>
+    <t>2.9.1</t>
+  </si>
+  <si>
+    <t>_nuth</t>
+  </si>
+  <si>
+    <t>Poor service</t>
+  </si>
+  <si>
+    <t>I can’t register account.</t>
+  </si>
+  <si>
+    <t>Hak Bozz</t>
+  </si>
+  <si>
+    <t>Need Help!</t>
+  </si>
+  <si>
+    <t>I can’t put code from message.</t>
+  </si>
+  <si>
+    <t>2.9.0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Raya Cambodia</t>
+  </si>
+  <si>
+    <t>Can’t create new account</t>
+  </si>
+  <si>
+    <t>Always show error “General Fail” when trying to create new Wing account and input Pin code.</t>
+  </si>
+  <si>
+    <t>មិនអាចចូល គណនីបាន</t>
+  </si>
+  <si>
+    <t>ហេតុអ្វី</t>
+  </si>
+  <si>
+    <t>7+មិនអាចដំឡើងបានទេ</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cgyyddg</t>
+  </si>
+  <si>
+    <t>Lychin4455</t>
+  </si>
+  <si>
+    <t>nichhour</t>
+  </si>
+  <si>
+    <t>Wings</t>
+  </si>
+  <si>
+    <t>Seller</t>
+  </si>
+  <si>
+    <t>wjejsjjxjdjsjzd</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>This app is full of bug please don’t use this app</t>
+  </si>
+  <si>
+    <t>Mai TB</t>
+  </si>
+  <si>
+    <t>Can’t transfer now</t>
+  </si>
+  <si>
+    <t>Why today can’t transfer to other bank and wing</t>
+  </si>
+  <si>
+    <t>beeecamkh</t>
+  </si>
+  <si>
+    <t>issues after system upgrading</t>
+  </si>
+  <si>
+    <t>Unable to add favorites and schedule payment is stopped working after update event Auto payment for Aeon Visa Card.</t>
+  </si>
+  <si>
+    <t>Saravuth Ros</t>
+  </si>
+  <si>
+    <t>Can't not log in</t>
+  </si>
+  <si>
+    <t>After system maintenance I can't log in for 2weeks</t>
+  </si>
+  <si>
+    <t>Zhu Jin Yang</t>
+  </si>
+  <si>
+    <t>តាំងពីupdateថ្មីមក កំពុងដកលុយក្នុងapp wing សុខៗ loadចូល safari អីណា ធុញខ្លាំងណាស់</t>
+  </si>
+  <si>
+    <t>meyxabg</t>
+  </si>
+  <si>
+    <t>No solution at all</t>
+  </si>
+  <si>
+    <t>My account get blocked and they keep saying the same things without fixing the problem</t>
+  </si>
+  <si>
+    <t>Samnang Pich</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Thank</t>
+  </si>
+  <si>
+    <t>sok chamnan</t>
+  </si>
+  <si>
+    <t>Fix your new version app</t>
+  </si>
+  <si>
+    <t>It kept diverting me to use delivery app and stuffs. Annoying!</t>
+  </si>
+  <si>
+    <t>Rachana.Chan</t>
+  </si>
+  <si>
+    <t>Hopeless</t>
+  </si>
+  <si>
+    <t>Before no need to pay for download, but why now need to pay ????</t>
+  </si>
+  <si>
+    <t>xCreaMxOfficial</t>
+  </si>
+  <si>
+    <t>Slow after update</t>
+  </si>
+  <si>
+    <t>Every password entered are loading...</t>
+  </si>
+  <si>
+    <t>FanTube 2</t>
+  </si>
+  <si>
+    <t>ហេតុអ្វីខ្ញុំមិនអាចចូលុះរណខ្ញុំ​បាន</t>
+  </si>
+  <si>
+    <t>2.8.1</t>
+  </si>
+  <si>
+    <t>Mr.Reach2022</t>
+  </si>
+  <si>
+    <t>Fee</t>
+  </si>
+  <si>
+    <t>Fee so expensive សេវាថ្លៃពេក សូម្បីតែផ្ទេរប្រាក់ទៅប្រព័ន្ធបាគង</t>
+  </si>
+  <si>
+    <t>2.7.6</t>
+  </si>
+  <si>
+    <t>vs098955</t>
+  </si>
+  <si>
+    <t>Not as be as a bank ABA</t>
+  </si>
+  <si>
+    <t>I can’t create account without reaching to wing agent but ABA is perfect, just do it from home.</t>
+  </si>
+  <si>
+    <t>Maco Philips</t>
+  </si>
+  <si>
+    <t>Announcements link not click able</t>
+  </si>
+  <si>
+    <t>In notification/announcement tab I cannot click on the link given.</t>
+  </si>
+  <si>
+    <t>2.7.5</t>
+  </si>
+  <si>
+    <t>tosarosa</t>
+  </si>
+  <si>
+    <t>Cheat App for lost money</t>
+  </si>
+  <si>
+    <t>Everyone I have the important thing to let you know this app will cheat your money online. Must becareful this horrible app. You will lost your money.</t>
+  </si>
+  <si>
+    <t>2.7.3</t>
+  </si>
+  <si>
+    <t>Cyrax86</t>
+  </si>
+  <si>
+    <t>Bad coding</t>
+  </si>
+  <si>
+    <t>App keeps crashing and UI is clunky</t>
+  </si>
+  <si>
+    <t>exit empty</t>
+  </si>
+  <si>
+    <t>ផ្ញើមកហើយដាក់មិនចូល</t>
+  </si>
+  <si>
+    <t>មើលកន្លែងដាក់កូតផងដាក់មិនចូលទេ</t>
+  </si>
+  <si>
+    <t>wq12213</t>
+  </si>
+  <si>
+    <t>Worst update ever</t>
+  </si>
+  <si>
+    <t>Devices which have been jailbroken COULDNT even open the app. Other banking apps allowed jailbroken device to use their app so why can’t you?</t>
+  </si>
+  <si>
+    <t>2.7.2</t>
+  </si>
+  <si>
+    <t>meta0168</t>
+  </si>
+  <si>
+    <t>Didn’t receive money</t>
+  </si>
+  <si>
+    <t>I sent some money to the seller but she did not receive it is there any thing that can help me?</t>
+  </si>
+  <si>
+    <t>SuP4l337-kila-CaP-a-CoP</t>
+  </si>
+  <si>
+    <t>Crash on iOS 15</t>
+  </si>
+  <si>
+    <t>The App won’t run when I updated to iOS 15, the Wing App don’t seem to want to fix this either!</t>
+  </si>
+  <si>
+    <t>Sarun Chan Kesey</t>
+  </si>
+  <si>
+    <t>Register not work.</t>
+  </si>
+  <si>
+    <t>When input phone number and received code but code doesn't fill up in box.</t>
+  </si>
+  <si>
+    <t>Vjeakeo</t>
+  </si>
+  <si>
+    <t>បន្ទាប់ពីអាប់ដេតបេីកប្រេីរលែងបាន</t>
+  </si>
+  <si>
+    <t>update version ថ្មីហេីយបេីកប្រេីរលែងបាន​  iphone 7  ios 14.3</t>
+  </si>
+  <si>
+    <t>Jii_Daii</t>
+  </si>
+  <si>
+    <t>Not working on iOS 15</t>
+  </si>
+  <si>
+    <t>Wing app crashing hope you fixed it soon</t>
+  </si>
+  <si>
+    <t>Hok60</t>
+  </si>
+  <si>
+    <t>Highly not recommend</t>
+  </si>
+  <si>
+    <t>Very hard to register, I think this app try to collect more data from us than facebook. The app even horrible many flaws and error, worse thing is developer ignore the problem and throw back to customer like it’s customer problem</t>
+  </si>
+  <si>
+    <t>Seth sophanuth</t>
+  </si>
+  <si>
+    <t>Apps Error on iPhone 7 Plus</t>
+  </si>
+  <si>
+    <t>បើកប្រើប្រាស់Appsមិនកើតពេលដែរដំឡើង Version 2.7.0 ពេល Version ចាស់ខ្ញុំអាចបើកប្រើបាន សូមបងជួយដោះស្រាយផង អរគុណ!</t>
+  </si>
+  <si>
+    <t>sivjing</t>
+  </si>
+  <si>
+    <t>Can’t sign up</t>
+  </si>
+  <si>
+    <t>Fix’s it please</t>
+  </si>
+  <si>
+    <t>Sroeung bin</t>
+  </si>
+  <si>
+    <t>Can not process wing money</t>
+  </si>
+  <si>
+    <t>I cannot process in using the wing money app version 2.7 in my iPhone 7plus (version 14.)</t>
+  </si>
+  <si>
+    <t>jayyyaaarrr</t>
+  </si>
+  <si>
+    <t>Rude agents</t>
+  </si>
+  <si>
+    <t>just take those agents out that are so rude, especially the one in toul toum pong</t>
+  </si>
+  <si>
+    <t>PiiSeth</t>
+  </si>
+  <si>
+    <t>OTA code error</t>
+  </si>
+  <si>
+    <t>I hard to login even I got a corrected OTA code from the the message. So please kindly fix this bug ASAP. Thanks</t>
+  </si>
+  <si>
+    <t>SkyTayTan</t>
+  </si>
+  <si>
+    <t>Can’t login</t>
+  </si>
+  <si>
+    <t>Can I ask some questions about my phone is 7+ why I can’t login wing money?</t>
+  </si>
+  <si>
+    <t>អា​ Wing</t>
+  </si>
+  <si>
+    <t>ចូលមិនកេីតលត់ចេញចុចលត់ចេញដូចអាច់</t>
+  </si>
+  <si>
+    <t>good app i like it !!</t>
+  </si>
+  <si>
+    <t>Can’t login it</t>
+  </si>
+  <si>
+    <t>Got my first card since 2019 and try to login til now no clue whatsoever and try to make new one fill all the info and still can’t it’s just said no connection even my LTE and WiFi are on.Plz fix this</t>
+  </si>
+  <si>
+    <t>2.6.1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Saovry168</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>សុីថុល</t>
+  </si>
+  <si>
+    <t>ខ្ញុំបង្កេីតអត់បានទេ</t>
+  </si>
+  <si>
+    <t>ដាក់ថាទាបជាង12</t>
+  </si>
+  <si>
+    <t>@pichable</t>
+  </si>
+  <si>
+    <t>This app is trash</t>
+  </si>
+  <si>
+    <t>I can't manually write my OTP code and there aren't copying button either. Which mean I'm stuck, I can't login into my WING account.</t>
+  </si>
+  <si>
+    <t>caotang1984</t>
+  </si>
+  <si>
+    <t>Many troublefor register new account</t>
+  </si>
+  <si>
+    <t>I dont know why register new account need more information from user like that??? Collect database information right? Only need 3 things for register new account: 1.money 2.Telephone for confirm when transfer 3.ID or Passport Plz make all things is simple and easy for all people using like ABA bank do it!! Swing is not Swing! only make problem more!</t>
+  </si>
+  <si>
+    <t>k'van</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Not Eazy to creat my account wing..!</t>
+  </si>
+  <si>
+    <t>Jaikohn</t>
+  </si>
+  <si>
+    <t>គ្មានមុខងារ transfer to local bank via Bakong</t>
+  </si>
+  <si>
+    <t>No feature: transfer to local back via Bakong.</t>
+  </si>
+  <si>
+    <t>Mars XXI</t>
+  </si>
+  <si>
+    <t>DO NOT USE</t>
+  </si>
+  <si>
+    <t>If it is possible, use better and trustworthy banks like ABA or ACLEDA. Wing is extremely bad with poor service and a lot of problems. I have yet to receive money after a refund I bought online because they are still “disputing” it.</t>
+  </si>
+  <si>
+    <t>010220890</t>
+  </si>
+  <si>
+    <t>Sent from my iPhone</t>
+  </si>
+  <si>
+    <t>Chris45454545</t>
+  </si>
+  <si>
+    <t>Fk wingu</t>
+  </si>
+  <si>
+    <t>Fk the stupid app with the security blocking shts</t>
+  </si>
+  <si>
+    <t>0965759270</t>
+  </si>
+  <si>
+    <t>Wing</t>
+  </si>
+  <si>
+    <t>g5hhh5</t>
+  </si>
+  <si>
+    <t>App not work on iPhone 12 mini</t>
+  </si>
+  <si>
+    <t>Please check it out , I cannot use this app.</t>
+  </si>
+  <si>
+    <t>2.6.0</t>
+  </si>
+  <si>
+    <t>Bosovannara</t>
+  </si>
+  <si>
+    <t>App iPhone 5s don’t open app</t>
+  </si>
+  <si>
+    <t>I’m not open wing</t>
+  </si>
+  <si>
+    <t>Vatanak_sam1"</t>
+  </si>
+  <si>
+    <t>Hard to create account!!!</t>
+  </si>
+  <si>
+    <t>Many information to fill in order to make account</t>
+  </si>
+  <si>
+    <t>2.5.2</t>
+  </si>
+  <si>
+    <t>Sok keun</t>
+  </si>
+  <si>
+    <t>Wing app</t>
+  </si>
+  <si>
+    <t>2.4.2</t>
+  </si>
+  <si>
+    <t>Dina+lita</t>
+  </si>
+  <si>
+    <t>iPhone 5</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Bong Pozz</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>Abcd2290</t>
+  </si>
+  <si>
+    <t>Love’s</t>
+  </si>
+  <si>
+    <t>ti</t>
+  </si>
+  <si>
+    <t>Welliam Trin</t>
+  </si>
+  <si>
+    <t>Trash</t>
+  </si>
+  <si>
+    <t>It keeps making me resend the wing verification code because apparently I can’t enter it manually which means it defeats the whole purpose of the verification. Code system it won’t physically let me type anything so please fix your broken coding.</t>
+  </si>
+  <si>
+    <t>K UMay</t>
+  </si>
+  <si>
+    <t>Not write on when get massage six code from wing</t>
+  </si>
+  <si>
+    <t>Not write on  { } { } { } { } { } { } when get six code</t>
+  </si>
+  <si>
+    <t>sotheakim</t>
+  </si>
+  <si>
+    <t>Wing Cambodia</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>MeazPich</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Good App</t>
+  </si>
+  <si>
+    <t>chhafou</t>
+  </si>
+  <si>
+    <t>linna2608</t>
+  </si>
+  <si>
+    <t>I can’t create wing mastercard</t>
+  </si>
+  <si>
+    <t>It’s said you can make 10free mastercard but i can’t make the second one it’s only give me a chance to create</t>
+  </si>
+  <si>
+    <t>2.4.0</t>
+  </si>
+  <si>
+    <t>sokphearith meas</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>88955</t>
+  </si>
+  <si>
+    <t>houkakada</t>
+  </si>
+  <si>
+    <t>Hou</t>
+  </si>
+  <si>
+    <t>Kakada</t>
+  </si>
+  <si>
+    <t>2.3.0</t>
+  </si>
+  <si>
+    <t>kong Hammat</t>
+  </si>
+  <si>
+    <t>0965499448</t>
+  </si>
+  <si>
+    <t>Hunter is not the same thing as</t>
+  </si>
+  <si>
+    <t>thol piseth</t>
+  </si>
+  <si>
+    <t>071499  9624</t>
+  </si>
+  <si>
+    <t>0714999624</t>
+  </si>
+  <si>
+    <t>lon rothna</t>
+  </si>
+  <si>
+    <t>Mrr Roth</t>
+  </si>
+  <si>
+    <t>086353339</t>
+  </si>
+  <si>
+    <t>vit mail</t>
+  </si>
+  <si>
+    <t>បញ្ហា​ធំ​</t>
+  </si>
+  <si>
+    <t>មានបញ្ហាលេីការចូលដំបូងនៅលេីios ដាក់​លេខ​ទូរសព្ទ​ចូលហេីយsms ក៏មកតែមិនវាយcod 6 ខ្ទង់បាន​ ទោះបេីក auto  flim នៅ​តែមិនអាចចូលបានសូមជួយពីនិត្រផង</t>
+  </si>
+  <si>
+    <t>085488189</t>
+  </si>
+  <si>
+    <t>085488169</t>
+  </si>
+  <si>
+    <t>8899</t>
+  </si>
+  <si>
+    <t>vichhau11</t>
+  </si>
+  <si>
+    <t>Sokna Heng</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Can’t backup my account.</t>
+  </si>
+  <si>
+    <t>why video is not clear?</t>
+  </si>
+  <si>
+    <t>Really?????</t>
+  </si>
+  <si>
+    <t>I stop using this app since it doesn’t support ios 11 anymore. What’s the point when you can’t even open the app?</t>
+  </si>
+  <si>
+    <t>outredbjutes bmkhfsrhb</t>
+  </si>
+  <si>
+    <t>App always error</t>
+  </si>
+  <si>
+    <t>App always error , no solution announcement, just go and ask from friends to uninstall and re install</t>
+  </si>
+  <si>
+    <t>2.2.0</t>
+  </si>
+  <si>
+    <t>rosiyyyyy</t>
+  </si>
+  <si>
+    <t>Wing app user</t>
+  </si>
+  <si>
+    <t>កម្មវិធីនេះល្អប៉ុន្តែសូមត្រួតពិនិត្យមើលអត្តចរិកភ្នាក់ងាររបស់អ្នកផង 
+This is a great app I love it but you need to observe your agency behavior</t>
+  </si>
+  <si>
+    <t>Keo Vit</t>
+  </si>
+  <si>
+    <t>Poor on call service</t>
+  </si>
+  <si>
+    <t>The call service center is always busy like most of the time.</t>
+  </si>
+  <si>
+    <t>panhchanaa</t>
+  </si>
+  <si>
+    <t>Can’t sign in</t>
+  </si>
+  <si>
+    <t>I’m a new one.It don’t let me sign in.And don’t send code too.How!?</t>
+  </si>
+  <si>
+    <t>ELLIZA.C</t>
+  </si>
+  <si>
+    <t>Very bad!</t>
+  </si>
+  <si>
+    <t>Please remove registration from my telephone number 016727333 and take those balance remained in the account
+Don’t want to use!
+Hard to reset password!
+Staff calling isn’t cooperatively nice
+Too many error and hard to get it resolved</t>
+  </si>
+  <si>
+    <t>rith xd</t>
+  </si>
+  <si>
+    <t>Icant login</t>
+  </si>
+  <si>
+    <t>I cant login to my wing account on ios 14 iphone 11 pro whe they send in sms i cant type in and it also dosent auto type in the code</t>
+  </si>
+  <si>
+    <t>AnimeshSarkar</t>
+  </si>
+  <si>
+    <t>Very good App, Must needed for daily life in Cambodia</t>
+  </si>
+  <si>
+    <t>I found WingApp very useful in Cambodia.
+I can pay bills, send money to other bank and anyone without a bank account across the country. 
+Sending money to abroad WingApp is cheapest remittance option in Cambodia.
+WingApp has master/Visa card, QR payment option for contactless payment at any merchant, I can earn points in every merchant payment, I can order food from WingMall and pay online.
+I can get insurance, do phone top up and many more things.
+It’s a must use app in Cambodia for people of any age.</t>
+  </si>
+  <si>
+    <t>gx897</t>
+  </si>
+  <si>
+    <t>092714851</t>
+  </si>
+  <si>
+    <t>50$</t>
+  </si>
+  <si>
+    <t>2.1.0</t>
+  </si>
+  <si>
+    <t>LeapfromYt</t>
+  </si>
+  <si>
+    <t>Cant log in</t>
+  </si>
+  <si>
+    <t>Why i cant log in my wing account? Ican t type the verification code pls fix it.</t>
+  </si>
+  <si>
+    <t>LakshmananSekar</t>
+  </si>
+  <si>
+    <t>No English writing in Form Filling</t>
+  </si>
+  <si>
+    <t>Wing Agents should have detail filling form one side khmer and another side English. Foreigners cannot fill the details in agents forms. Difficult to communicate to them.</t>
+  </si>
+  <si>
+    <t>Chomreun03</t>
+  </si>
+  <si>
+    <t>Not easy to use</t>
+  </si>
+  <si>
+    <t>sbfvdgdheh</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>My card got blocked for no reason</t>
+  </si>
+  <si>
+    <t>user_54321123</t>
+  </si>
+  <si>
+    <t>No warning about money deduction</t>
+  </si>
+  <si>
+    <t>They said transaction was free and then took away some money</t>
+  </si>
+  <si>
+    <t>mdylize</t>
+  </si>
+  <si>
+    <t>Please check</t>
+  </si>
+  <si>
+    <t>Why I can’t create an wing account now ?</t>
+  </si>
+  <si>
+    <t>Mr. RM PVG</t>
+  </si>
+  <si>
+    <t>FULL KYC</t>
+  </si>
+  <si>
+    <t>Please allow customers to update KYC through this wing App.
+I can’t scan QR code and pay bills. It doesn’t work well with QR code electricity and water bill.</t>
+  </si>
+  <si>
+    <t>krono417</t>
+  </si>
+  <si>
+    <t>Account blocked</t>
+  </si>
+  <si>
+    <t>didn’t even get to use the app, one wrong password and account blocked</t>
+  </si>
+  <si>
+    <t>2.0.2</t>
+  </si>
+  <si>
+    <t>m@rtinsan</t>
+  </si>
+  <si>
+    <t>What a godly poor design</t>
+  </si>
+  <si>
+    <t>The UI, stability are just horrible. Hire better coder.</t>
+  </si>
+  <si>
+    <t>SRKesor</t>
+  </si>
+  <si>
+    <t>Your OTP confirmation code is the worst I have ever seen</t>
+  </si>
+  <si>
+    <t>I have 3 phones and only one wing account and with this type of OTP code I can’t use this app on all my phones unless I switch my sim. I decided not to do that and created new account and in the end, it was a complete disappointment. When I try to re-login to the new account, the OTP sms didn’t automatically refill the code that I got in the same device. PLEASE FIX YOUR STUPID OTP CODE!</t>
+  </si>
+  <si>
+    <t>Nha_Defuq</t>
+  </si>
+  <si>
+    <t>New design</t>
+  </si>
+  <si>
+    <t>I love it and it will be so much more better if you make a new design for this app....(●’◡’●)ﾉ</t>
+  </si>
+  <si>
+    <t>SamTheGoatz</t>
+  </si>
+  <si>
+    <t>App crash</t>
+  </si>
+  <si>
+    <t>My app keep crashing I don’t know why?
+Can you please fix this</t>
+  </si>
+  <si>
+    <t>VyProGame</t>
+  </si>
+  <si>
+    <t>DO NOT UPGRADE!</t>
+  </si>
+  <si>
+    <t>After after in May this app never get opened again. Crashed everytime.</t>
+  </si>
+  <si>
+    <t>2.0.1</t>
+  </si>
+  <si>
+    <t>Mengann Kong</t>
+  </si>
+  <si>
+    <t>Doesn’t work</t>
+  </si>
+  <si>
+    <t>The app doesn’t work at all before and after update</t>
+  </si>
+  <si>
+    <t>JamieSag</t>
+  </si>
+  <si>
+    <t>I can’t do anything with this new update, cuz it crashed.</t>
+  </si>
+  <si>
+    <t>SmeyLte</t>
+  </si>
+  <si>
+    <t>App not work</t>
+  </si>
+  <si>
+    <t>This latest version (v2.0.0) is not work with IOS 13.4.1 iPhone XS Max please kindly fix
+Thanks</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>Chhorporn</t>
+  </si>
+  <si>
+    <t>Could not login</t>
+  </si>
+  <si>
+    <t>Worst app ever</t>
+  </si>
+  <si>
+    <t>1.11.1</t>
+  </si>
+  <si>
+    <t>ណាំហាយ</t>
+  </si>
+  <si>
+    <t>Cannot login</t>
+  </si>
+  <si>
+    <t>I spent half day to reactivate my wing account, i called about 10 time to hotline but i still cannot use it. They said our account is active but activate in iPhone apps it said “your app user has been blocked” reboot phone and resinstall this app still cannot login until now. Waste tike and wasted money.</t>
+  </si>
+  <si>
+    <t>Net pov</t>
+  </si>
+  <si>
+    <t>I can't login with my phone</t>
+  </si>
+  <si>
+    <t>Pix pec</t>
+  </si>
+  <si>
+    <t>1.11.0</t>
+  </si>
+  <si>
+    <t>cheasovandara</t>
+  </si>
+  <si>
+    <t>Need improvements</t>
+  </si>
+  <si>
+    <t>Nowadays, the world is running, but your service is still walking.</t>
+  </si>
+  <si>
+    <t>Telor Creats</t>
+  </si>
+  <si>
+    <t>My Account Wing ត្រូវបានblock help</t>
+  </si>
+  <si>
+    <t>070892789</t>
+  </si>
+  <si>
+    <t>1.10.0</t>
+  </si>
+  <si>
+    <t>pichnarong</t>
+  </si>
+  <si>
+    <t>2 card problem</t>
+  </si>
+  <si>
+    <t>Seriously I see that this app say 10 card is ok but I only make 2 cards and it say my account is blocking which I can use my real card but can’t use the app why can u fix this problem oh and everything else is really good only this problem please fix it!!</t>
+  </si>
+  <si>
+    <t>1.9.0</t>
+  </si>
+  <si>
+    <t>eang09</t>
+  </si>
+  <si>
+    <t>ABA</t>
+  </si>
+  <si>
+    <t>I think ABA is the best !</t>
+  </si>
+  <si>
+    <t>Sun Van</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Why I can’t register with wing</t>
+  </si>
+  <si>
+    <t>060652490</t>
+  </si>
+  <si>
+    <t>Rith cita</t>
+  </si>
+  <si>
+    <t>070652490</t>
+  </si>
+  <si>
+    <t>LikeChat</t>
+  </si>
+  <si>
+    <t>Ridiculous service charges</t>
+  </si>
+  <si>
+    <t>This bank charges many services while other banks provide them free. Yesterday I went to cash out at its agent, but I couldn’t withdraw my money. It said my account was frozen. I called their call center, they said I didn’t have enough documents and asked me to update my details with any agent. I went there, but the agent (very unfriendly) refused to do it for me at first until I recalled the call center. The call center talked to him and he did for me (not happy to do it) and asked me to do many things by myself to get 6 digits code (I didn’t know how to do it at that time but he didn’t help). I got the digits but then the machine was stuck, and nothing worked. That was very annoying and wasted my time so much. 😡😡I decided to go to their headquarter the next day, it took quite sometime to fix it. I could cash my money out for now, but I was surprised that they charged me 90cents for 60$ cash out. That’s ridiculous!!! When my friends sent money to my account they charged one time, and when I withdrew the money, they charged again. Even you transfer money between your own account, they also charged you!!! 😡😡😡The app, the agent, the service, etc are not convenient. I don’t recommend this bank.</t>
+  </si>
+  <si>
+    <t>Kxlalisax</t>
+  </si>
+  <si>
+    <t>Can’t log in</t>
+  </si>
+  <si>
+    <t>My phone is iphone 7 plus , I cannot log
+In to my account in wing app. It keep saying that there’re no connection but it work well on the other app. I call to wing service about it but still there’re no solutions. Please look into this for me.</t>
+  </si>
+  <si>
+    <t>1.8.3</t>
+  </si>
+  <si>
+    <t>Tas-Na</t>
+  </si>
+  <si>
+    <t>What about day and months download this app???</t>
+  </si>
+  <si>
+    <t>Day month and year</t>
+  </si>
+  <si>
+    <t>1.8.2</t>
+  </si>
+  <si>
+    <t>adenroderick</t>
+  </si>
+  <si>
+    <t>Problems</t>
+  </si>
+  <si>
+    <t>I try to top up my phone it take my money from my account but my phone doesn’t top up. I try it 2times still not working:))</t>
+  </si>
+  <si>
+    <t>1.8.1</t>
+  </si>
+  <si>
+    <t>jackop jo</t>
+  </si>
+  <si>
+    <t>Difficult</t>
+  </si>
+  <si>
+    <t>Bad app very difficult to use every time when ios update can not open.</t>
+  </si>
+  <si>
     <t>Sophea Naga</t>
   </si>
   <si>
     <t>cannot login</t>
   </si>
   <si>
-    <t>在app和网站注销后也无法登录。你为什么这么做？在网站上登录但无法登录？ ？ ？ ？</t>
+    <t>cannot login after logout in app &amp; website too. why you do that? make form login in website but cannot login ? ? ? ?</t>
   </si>
   <si>
     <t>1.7.9</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Chea Pisey</t>
   </si>
   <si>
-    <t>Wing</t>
-  </si>
-  <si>
-    <t>好💜</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>beeecamkh</t>
-  </si>
-  <si>
-    <t>Cannot log out</t>
-  </si>
-  <si>
-    <t>更新到1.7.9版本后，我遇到无法注销应用程序的问题。我试着问呼叫中心他们说我们可以通过SIM卡删除登出。不幸的是，我使用esim，为什么我canot删除SIM卡。面部解锁也不安全。只有4位数不安全。请为下一个版本添加登录/注销。</t>
+    <t>Good 💜</t>
   </si>
   <si>
     <t>BunlyTours</t>
@@ -76,22 +1178,23 @@
     <t>New members registration</t>
   </si>
   <si>
-    <t>我们一直试图在Wing帐户注册很多次。但是因为让我们正常工作是不可能的。  我们已要求帮助我们列入您的帐户。 联系电话：0769888847  祝你一切顺利， Bunly</t>
+    <t>We have been trying to register in Wing Account many time. but as it is an impossible to let us work properly.
+We have requested to help us to be listed in your account.
+Tel:0769888847
+Wish you all the best,
+Bunly</t>
   </si>
   <si>
     <t>1.7.8</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>chamreun077777</t>
   </si>
   <si>
     <t>Get blocked</t>
   </si>
   <si>
-    <t>为什么你阻止了我？我刚刚放了5美元</t>
+    <t>Why you blocked me? I’ve just put 5$</t>
   </si>
   <si>
     <t>T'challa868</t>
@@ -100,7 +1203,7 @@
     <t>Bad notification</t>
   </si>
   <si>
-    <t>你为什么不允许我们删除通知？为什么？这是有史以来最糟糕的想法😡😡😡!!!</t>
+    <t>Why didn’t u allow us to delete notifications? Just why? This is the worst idea ever 😡😡😡!!!</t>
   </si>
   <si>
     <t>Ny Ry</t>
@@ -109,7 +1212,7 @@
     <t>Ry Ny</t>
   </si>
   <si>
-    <t>香港</t>
+    <t>koh kong</t>
   </si>
   <si>
     <t>1.7.7</t>
@@ -118,10 +1221,7 @@
     <t>menglychhat</t>
   </si>
   <si>
-    <t>Can’t log in</t>
-  </si>
-  <si>
-    <t>我的帐户无法登录</t>
+    <t>My account can not login in</t>
   </si>
   <si>
     <t>sitha 45</t>
@@ -130,7 +1230,7 @@
     <t>Can not open the app always ask me to update</t>
   </si>
   <si>
-    <t>帮帮我吧</t>
+    <t>Help me pls</t>
   </si>
   <si>
     <t>sarann you</t>
@@ -139,7 +1239,8 @@
     <t>New app</t>
   </si>
   <si>
-    <t>我无法更新到1.7.7版 Plz再次检查它</t>
+    <t>I can’t update to version 1.7.7
+Plz check it again</t>
   </si>
   <si>
     <t>iPlej</t>
@@ -148,7 +1249,11 @@
     <t>Mrr Leex</t>
   </si>
   <si>
-    <t>感谢翼应用程序1.7.6（iPhone X），这个版本是完美的，我喜欢和信任 错误1  - 面对id登录仍然无法修复，需要多次登录，有时会被粉碎，需要重启app。  1  - 在线万事达卡现已完美（😘😘）10张卡/账号，每日购买次数和最大金额现已可定制 2  - 更改OMC关联帐户（😘💯）  30日至2019</t>
+    <t>Thanks wing app 1.7.6 (iPhone X), this version is perfect, I love &amp; trusted
+Error 1 - face id login is still not fix, need to login multiple times, sometimes it crushed, need to restart app.
+1 - Online Master Card is now perfect (😘 💯) 10 card/account, number of daily purchase &amp; max amount is now customizable
+2 - Change OMC linked account ( 😘💯)
+30-March-2019</t>
   </si>
   <si>
     <t>1.7.6</t>
@@ -166,7 +1271,7 @@
     <t>Wing Money Problem Login</t>
   </si>
   <si>
-    <t>我无法登录翼钱账户请解决这个问题</t>
+    <t>I can’t login to wing money account please fix this problem</t>
   </si>
   <si>
     <t>1.7.4</t>
@@ -178,7 +1283,7 @@
     <t>តើយើងត្រូវធ្វើអ្វីទៀតបន្ទាប់ពីបង្កើតករណីវីងរួចហើយ</t>
   </si>
   <si>
-    <t>我已经安装后应该如何为Wing应用程序做但我无法使用它，因为我重置了我的手机应用程序，然后在重新安装后我再也无法使用它。</t>
+    <t>How should I do for Wing app after I installed already but I couldn't use it because I had reset my phone application and then I couldn't use it again after re-installing.</t>
   </si>
   <si>
     <t>chomnor545957</t>
@@ -187,7 +1292,7 @@
     <t>iPhone</t>
   </si>
   <si>
-    <t>喜欢这样的</t>
+    <t>Love like this</t>
   </si>
   <si>
     <t>1.7.3</t>
@@ -199,10 +1304,7 @@
     <t>Dizzy</t>
   </si>
   <si>
-    <t>重新打开后，它没有密码框。请解决这个问题。</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>It doesn't have password box after I reopen it. Please fix this.</t>
   </si>
   <si>
     <t>Sopha Even</t>
@@ -211,16 +1313,7 @@
     <t>បើសិនជាវីងធ្វើធ្វើដៃគូរសហរការជាមួយធនាគា ABA មិនដឹងជាល្អយ៉ាងណាទេ</t>
   </si>
   <si>
-    <t>爱眨眼</t>
-  </si>
-  <si>
-    <t>Sokong * 速金</t>
-  </si>
-  <si>
-    <t>Wing best🙂</t>
-  </si>
-  <si>
-    <t>这是最好app像Alipay 一样。 可以用在柬埔寨到处使用🙂</t>
+    <t>Love Wink</t>
   </si>
   <si>
     <t>Pov seyha</t>
@@ -229,10 +1322,7 @@
     <t>បញ្ហាទាក់ទងនឹងភ្នាក់ងារមួយចំនួននៅតាមខេត្ត</t>
   </si>
   <si>
-    <t>派遣工作人员教授省级代理商，向他们发送一张带有附属于app翼卡的现金卡</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>សូមបញ្ជូនបុគ្គលិកទៅបង្រៀនភ្នាក់ងារនៅតាមខេត្តអោយគាត់ចេញដាក់លុយចូលគណី​តាមរយៈ​កាតដែលបង្កើយតាមapp wing ផង</t>
   </si>
   <si>
     <t>Koy123456</t>
@@ -241,19 +1331,21 @@
     <t>Transaction summary</t>
   </si>
   <si>
-    <t>我很难在交易摘要中看到弹出消息中的所有信息。如果我想查看所有信息，我必须向上滚动。你能不能把弹出更大，因为我需要为我公司的目的每次交易屏幕截图。如果它可以在iPad上使用，我们非常感激。</t>
+    <t>I hardly to see all information in the pop up message in transactions summary. If I want to see all Information, I have to scroll up. Could you please make the pop up bigger because I need to screen shot every transaction I made for my company purpose. And it’s much appreciated if it is available on iPad.</t>
   </si>
   <si>
     <t>1.7.2</t>
   </si>
   <si>
-    <t>chhay7</t>
+    <t>__CHHAY__</t>
   </si>
   <si>
     <t>Acc Wing problem</t>
   </si>
   <si>
-    <t>我不能创建我自己的acc翼。 我该如何创建它？ 还有一件事在IPhone6s上不起作用。</t>
+    <t>I can’t create my own acc wing. 
+How can I create it?
+One more thing it doesn’t work on IPhone6s plus.</t>
   </si>
   <si>
     <t>LvF5</t>
@@ -262,7 +1354,7 @@
     <t>Don’t use this app</t>
   </si>
   <si>
-    <t>许多错误无法登录。问题太多了</t>
+    <t>Many errors cannot log-in. Too much problem</t>
   </si>
   <si>
     <t>Taichiiiiiiiiiiii</t>
@@ -271,7 +1363,7 @@
     <t>Error master card</t>
   </si>
   <si>
-    <t>为什么我看不到我的主卡!!!我不能用!!!请修复此:)）</t>
+    <t>Why I can’t see my master card!!! And I can’t use!!! Pls fix this:))</t>
   </si>
   <si>
     <t>use to be a gt fan</t>
@@ -280,7 +1372,7 @@
     <t>Link account problem</t>
   </si>
   <si>
-    <t>帮助idk它是什么请帮助我在我尝试登录机翼时想要做什么只是转到页面链接帐户到底是怎么回事</t>
+    <t>Help idk what it is pls help I idk what to do when I try to log in the wing just go to the page link account what the hell is going on</t>
   </si>
   <si>
     <t>1.7.0</t>
@@ -301,7 +1393,7 @@
     <t>Seyha</t>
   </si>
   <si>
-    <t>快乐</t>
+    <t>Happy</t>
   </si>
   <si>
     <t>oudomm</t>
@@ -310,7 +1402,7 @@
     <t>Stressful</t>
   </si>
   <si>
-    <t>请！！！安装应用程序后，它工作正常，但在关闭应用程序一次后，它变得无用。再次打开应用程序时，它会为您提供电话号码框，并且没有输入BOTTON。请！！！我无法决定一次又一次地删除并重新安装它。再次PLEASEEEE</t>
+    <t>Please!!! After install app it works as  fine, but after close app for once then it becomes useless. When open the app again it gives you the phone number box and there is NO ENTER BOTTON. Please!!! I can’t make up my mind to delete and reinstall it again and again.. again PLEASEEEE</t>
   </si>
   <si>
     <t>2018Raking</t>
@@ -325,16 +1417,13 @@
     <t>Béé Móó</t>
   </si>
   <si>
-    <t>我重置了我的iPhone。现在我无法登录它说“该帐户已在其他设备上激活”。 Plz解决了这个问题。</t>
+    <t>I reset my iPhone. And now i can’t log in It said “the account is already activate on other device”. Plz fix this thing.</t>
   </si>
   <si>
     <t>yayatores</t>
   </si>
   <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>喜欢</t>
+    <t>Like</t>
   </si>
   <si>
     <t>rathanapiture</t>
@@ -343,7 +1432,7 @@
     <t>I like very well</t>
   </si>
   <si>
-    <t>我非常喜欢</t>
+    <t>Very very good I like</t>
   </si>
   <si>
     <t>Chan Leng CL</t>
@@ -352,7 +1441,7 @@
     <t>Shxt app</t>
   </si>
   <si>
-    <t>重置iPhone上的所有内容和设置后，我无法登录到我的帐户。我给Wing Money facebook发了短信页面，他们希望我联系Care Center。我告诉护理中心我在手机上丢失了所有内容，因为我做了重置，护理中心的那个女孩仍然想要我刚刚注册帐户时收到的消息。真的吗？ Fk u。我的帐户还剩下一美元。我见过的Shxt服务。</t>
+    <t>I can't log in to my account after doing a reset all contents and settings on my iPhone. I texted Wing Money facebook page and they wanted me to contact with Care Centre. I told the Care Centre that I lost all my contents on my phone because I did a reset, and that fking girl in Care Centre still wanted the message I got when I just registered the account. Seriously? Fk u. I have more than a dollar left in the account. Shxt service I have ever seen.</t>
   </si>
   <si>
     <t>Fantaellyma</t>
@@ -361,7 +1450,7 @@
     <t>Wasting time</t>
   </si>
   <si>
-    <t>我更新这个应用程序后，我甚至无法登录它说只有不可用</t>
+    <t>After I updated this app I cannot even logging in it said only not available</t>
   </si>
   <si>
     <t>suyveasna</t>
@@ -382,7 +1471,7 @@
     <t>Processing not so smooth</t>
   </si>
   <si>
-    <t>尝试开发有关此应用的更多信息</t>
+    <t>Try to develop more about this app</t>
   </si>
   <si>
     <t>70traxD</t>
@@ -391,7 +1480,7 @@
     <t>App problem</t>
   </si>
   <si>
-    <t>我已经在最新版本，但应用程序仍然要求我更新。请解决这个问题</t>
+    <t>I’m already at the latest version but the app still ask me to update. Please fix this</t>
   </si>
   <si>
     <t>ChoubSela</t>
@@ -400,7 +1489,7 @@
     <t>Choubsela</t>
   </si>
   <si>
-    <t>很好</t>
+    <t>Very good</t>
   </si>
   <si>
     <t>1.5.7</t>
@@ -412,7 +1501,7 @@
     <t>App not responding</t>
   </si>
   <si>
-    <t>无法再次登录请修复新的更新</t>
+    <t>Could not login again pls fix new update</t>
   </si>
   <si>
     <t>Vitovya</t>
@@ -421,7 +1510,8 @@
     <t>Login error</t>
   </si>
   <si>
-    <t>在IOS（iPhone 6s +）上更新最新版本翼后无法登录。请尽快修复它。 谢谢</t>
+    <t>Could not login after updating latest version wing on IOS (iPhone 6s+). Please fix it ASAP.
+Thank</t>
   </si>
   <si>
     <t>1.5.2</t>
@@ -433,7 +1523,7 @@
     <t>can not install</t>
   </si>
   <si>
-    <t>为什么我无法下载和安装它？请修复它</t>
+    <t>Why I can't download and install it?pleas fix  it</t>
   </si>
   <si>
     <t>1.5.1</t>
@@ -445,7 +1535,7 @@
     <t>Can not open the app</t>
   </si>
   <si>
-    <t>该应用程序很有帮助，但更新后，我无法打开！</t>
+    <t>The app was helpful, but after updating it, I can not open!!!</t>
   </si>
   <si>
     <t>1.5.0</t>
@@ -457,7 +1547,7 @@
     <t>App Crash</t>
   </si>
   <si>
-    <t>账单支付PPWSA成功后，app立即关闭。</t>
+    <t>After bill pay PPWSA successfully, app closed immediately.</t>
   </si>
   <si>
     <t>1.4.4</t>
@@ -469,7 +1559,7 @@
     <t>Installation fail.</t>
   </si>
   <si>
-    <t>请修复它</t>
+    <t>Fix it please</t>
   </si>
   <si>
     <t>1.4.1</t>
@@ -481,7 +1571,8 @@
     <t>This version keep crashing</t>
   </si>
   <si>
-    <t>更新后，此版本不断崩溃。  Iphone7 +</t>
+    <t>After update this version keep crashing.
+Iphone7+</t>
   </si>
   <si>
     <t>1.3.0</t>
@@ -490,6 +1581,9 @@
     <t>By VBS Apple</t>
   </si>
   <si>
+    <t>Very well</t>
+  </si>
+  <si>
     <t>1.2.2</t>
   </si>
   <si>
@@ -499,7 +1593,7 @@
     <t>Easy to use and convenient app</t>
   </si>
   <si>
-    <t>良好的界面和用户友好。</t>
+    <t>Good interface and user friendly.</t>
   </si>
   <si>
     <t>1.0.1</t>
@@ -511,7 +1605,7 @@
     <t>No good</t>
   </si>
   <si>
-    <t>不能用:(</t>
+    <t>Can't  use :(</t>
   </si>
   <si>
     <t>1.0.0</t>
@@ -523,7 +1617,7 @@
     <t>Add option to app</t>
   </si>
   <si>
-    <t>请在应用密码上添加更多选项，以保持客户平衡隐私。</t>
+    <t>Please add more options on app passcode to keep customers balance privacy.</t>
   </si>
 </sst>
 </file>
@@ -888,7 +1982,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -956,30 +2050,30 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -993,27 +2087,27 @@
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -1024,16 +2118,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -1056,10 +2150,10 @@
         <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1076,10 +2170,10 @@
         <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1093,233 +2187,233 @@
         <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1333,133 +2427,133 @@
         <v>75</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1473,253 +2567,253 @@
         <v>98</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1733,47 +2827,47 @@
         <v>139</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>10</v>
@@ -1784,122 +2878,2402 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>62</v>
+      <c r="D52" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
